--- a/tests/fixtures/community_datasheet_alt.xlsx
+++ b/tests/fixtures/community_datasheet_alt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General settings" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t xml:space="preserve">start_date</t>
   </si>
@@ -157,15 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">Battery_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity [kWh]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum allowed SoC [-]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum power [kW]</t>
   </si>
   <si>
     <t xml:space="preserve">Battery 1</t>
@@ -332,7 +323,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:E8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -472,8 +463,8 @@
   </sheetPr>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L8" activeCellId="1" sqref="C1:E8 L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -683,7 +674,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:E8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -782,7 +773,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:E8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -900,8 +891,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,49 +912,31 @@
       <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.005</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.005</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -1019,7 +992,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:E8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1030,7 +1003,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>36</v>
@@ -1041,13 +1014,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/tests/fixtures/community_datasheet_alt.xlsx
+++ b/tests/fixtures/community_datasheet_alt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General settings" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t xml:space="preserve">start_date</t>
   </si>
@@ -78,7 +78,10 @@
     <t xml:space="preserve">Feed-in Tariff</t>
   </si>
   <si>
-    <t xml:space="preserve">Grid fee</t>
+    <t xml:space="preserve">Grid import fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid export fee</t>
   </si>
   <si>
     <t xml:space="preserve">Taxes and surcharges</t>
@@ -323,16 +326,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:E8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -461,23 +464,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="1" sqref="C1:E8 L8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="33.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="5" style="1" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -517,67 +520,73 @@
       <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>64508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>1</v>
@@ -589,7 +598,7 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0.5</v>
@@ -603,24 +612,27 @@
       <c r="L3" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>57441</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>1</v>
@@ -632,7 +644,7 @@
         <v>0.3</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0.5</v>
@@ -646,11 +658,14 @@
       <c r="L4" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -674,21 +689,21 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:E8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -696,10 +711,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -773,40 +788,40 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:E8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="n">
@@ -816,10 +831,10 @@
     </row>
     <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>12</v>
@@ -891,26 +906,26 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:E8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -918,10 +933,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -929,10 +944,10 @@
     </row>
     <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -992,35 +1007,35 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:E8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
